--- a/raw_ts_data/fd/fd3_metadata.xlsx
+++ b/raw_ts_data/fd/fd3_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B542B49A-D71A-4C4F-9110-8F6A7D0F45AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F2F920-7361-476F-B529-09E19B399799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F3A1A8F-621A-49F5-8129-538B98ED9FF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{934731F6-3023-4192-A16A-9F86B9C29AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+  <si>
+    <t>Last reach</t>
+  </si>
+  <si>
+    <t>Poor sketch, 30 min to find the right pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too windy, otherwise nice. </t>
+  </si>
+  <si>
+    <t>Toolik Orange</t>
+  </si>
+  <si>
+    <t>NCW</t>
+  </si>
+  <si>
+    <t>9.6C</t>
+  </si>
+  <si>
+    <t>3TP6</t>
+  </si>
+  <si>
+    <t>EP8 - satisfactory sketch; found the pools in a jiffy</t>
+  </si>
+  <si>
+    <t>A beautiful day, pretty much perfect except a little windy in the morning and a little too sunny in the afternoon</t>
+  </si>
+  <si>
+    <t>UMass Blue</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>12.9C</t>
+  </si>
+  <si>
+    <t>3EP8</t>
+  </si>
+  <si>
+    <t>TP11 - very disappointed in the sketch; missing North, point markers; took us 30-45 minutse just to find the pools</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.4C*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*was not written down but recalled later</t>
+    </r>
+  </si>
+  <si>
+    <t>3TP11</t>
+  </si>
+  <si>
+    <t>In the offloaded TS data, this reach was mistakenly labeled "3EP13" instead of "3TP13"</t>
+  </si>
+  <si>
+    <t>TP13 - mediocre sketch; missing North direction, but stream outline was good and we were able to find the pools and flag quickly</t>
+  </si>
+  <si>
+    <t>UMass Orange</t>
+  </si>
+  <si>
+    <t>3TP13</t>
+  </si>
   <si>
     <t>Struggled finding the pools- sketch was not drawn very well - failed to identify waterfall landmark; inlet and outlets drawn inaccurately.</t>
   </si>
@@ -44,9 +120,6 @@
     <t>Nice day, partly cloudly, slight sprinkle occasionally. Warm and really fuckin' buggy</t>
   </si>
   <si>
-    <t>Toolik Orange</t>
-  </si>
-  <si>
     <t>ETB</t>
   </si>
   <si>
@@ -62,12 +135,6 @@
     <t>Pretty gosh darn cold and windy</t>
   </si>
   <si>
-    <t>UMass Blue</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>5.5C</t>
   </si>
   <si>
@@ -80,9 +147,6 @@
     <t>Overcast, slighly foggy, chilly but not freezing, small wind</t>
   </si>
   <si>
-    <t>UMass Orange</t>
-  </si>
-  <si>
     <t>EF</t>
   </si>
   <si>
@@ -90,9 +154,6 @@
   </si>
   <si>
     <t>3TP17</t>
-  </si>
-  <si>
-    <t>**Special Groundwater Sample**</t>
   </si>
   <si>
     <t>1.4C - groundwater
@@ -102,6 +163,9 @@
     <t>3EP13</t>
   </si>
   <si>
+    <t>**Special Groundwater Sample**</t>
+  </si>
+  <si>
     <t>Large pools and dense tundra made this one challenging. Some water points could not be taken.</t>
   </si>
   <si>
@@ -132,9 +196,6 @@
     <t>Cold, very foggy, light rain around 13-14:00</t>
   </si>
   <si>
-    <t>EH</t>
-  </si>
-  <si>
     <t>5C</t>
   </si>
   <si>
@@ -184,13 +245,16 @@
   </si>
   <si>
     <t>Reach</t>
+  </si>
+  <si>
+    <t>Sampling Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,12 +288,24 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,12 +328,43 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -313,23 +420,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,17 +440,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -357,31 +485,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -393,11 +521,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,15 +846,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCA4E29-D4CD-4B8A-AE8A-DCD5144C78C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B34E9D2-B5CB-4B43-BE8A-12F6070CE878}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -738,488 +873,672 @@
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="35.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="48.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="12.5546875" style="1"/>
+    <col min="16" max="16" width="33.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:17" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" s="34" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="32">
+        <v>44790</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="H3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="27">
+        <v>398142</v>
+      </c>
+      <c r="K3" s="27">
+        <v>7607177</v>
+      </c>
+      <c r="L3" s="27">
+        <v>870</v>
+      </c>
+      <c r="M3" s="27">
+        <v>396</v>
+      </c>
+      <c r="N3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="O3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:17" s="27" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="C4" s="32">
+        <v>44791</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="27">
+        <v>423169</v>
+      </c>
+      <c r="K4" s="27">
+        <v>7628849</v>
+      </c>
+      <c r="L4" s="27">
+        <v>508</v>
+      </c>
+      <c r="M4" s="27">
+        <v>780</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="O4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="28" t="s">
+    </row>
+    <row r="5" spans="1:17" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="D5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="H5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="27">
+        <v>426709</v>
+      </c>
+      <c r="K5" s="27">
+        <v>7665366</v>
+      </c>
+      <c r="L5" s="27">
+        <v>323</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1316</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="O5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="28" t="s">
+    </row>
+    <row r="6" spans="1:17" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="C6" s="32">
+        <v>44793</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="30">
+        <v>0.53125</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="H6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="N6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:17" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="C7" s="32">
+        <v>44793</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="25">
-        <v>44790</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.64097222222222217</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0.59097222222222223</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="H7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="27">
+        <v>426409</v>
+      </c>
+      <c r="K7" s="27">
+        <v>7669110</v>
+      </c>
+      <c r="L7" s="27">
+        <v>337</v>
+      </c>
+      <c r="M7" s="27">
+        <v>1351</v>
+      </c>
+      <c r="N7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="O7" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="19">
+        <v>44794</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.46875</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="20">
-        <v>398142</v>
-      </c>
-      <c r="K2" s="20">
-        <v>7607177</v>
-      </c>
-      <c r="L2" s="20">
-        <v>870</v>
-      </c>
-      <c r="M2" s="20">
-        <v>396</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" s="20" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="25">
-        <v>44791</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="I8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="24">
+        <v>419494</v>
+      </c>
+      <c r="K8" s="24">
+        <v>7624379</v>
+      </c>
+      <c r="L8" s="24">
+        <v>608</v>
+      </c>
+      <c r="M8" s="24">
+        <v>737</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="O8" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19">
+        <v>44796</v>
+      </c>
+      <c r="D9" s="26">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J9" s="24">
+        <v>427325</v>
+      </c>
+      <c r="K9" s="24">
+        <v>7663213</v>
+      </c>
+      <c r="L9" s="24">
+        <v>346</v>
+      </c>
+      <c r="M9" s="24">
+        <v>1367</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19">
+        <v>44797</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.4375</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="20">
-        <v>423169</v>
-      </c>
-      <c r="K3" s="20">
-        <v>7628849</v>
-      </c>
-      <c r="L3" s="20">
-        <v>508</v>
-      </c>
-      <c r="M3" s="20">
-        <v>780</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.62986111111111109</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="I10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="24">
+        <v>420491</v>
+      </c>
+      <c r="K10" s="24">
+        <v>7622843</v>
+      </c>
+      <c r="L10" s="24">
+        <v>587</v>
+      </c>
+      <c r="M10" s="24">
+        <v>1480</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44797</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="H11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>420240</v>
+      </c>
+      <c r="K11" s="6">
+        <v>7622690</v>
+      </c>
+      <c r="L11" s="6">
+        <v>591</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1407</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44797</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>420595</v>
+      </c>
+      <c r="K12" s="6">
+        <v>7622422</v>
+      </c>
+      <c r="L12" s="6">
+        <v>576</v>
+      </c>
+      <c r="M12" s="6">
+        <v>739</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15">
+        <v>44798</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="10">
+        <v>412916</v>
+      </c>
+      <c r="K13" s="10">
+        <v>7619360</v>
+      </c>
+      <c r="L13" s="10">
+        <v>772</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1431</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="20">
-        <v>426709</v>
-      </c>
-      <c r="K4" s="20">
-        <v>7665366</v>
-      </c>
-      <c r="L4" s="20">
-        <v>323</v>
-      </c>
-      <c r="M4" s="20">
-        <v>1316</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="25">
-        <v>44793</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23">
-        <v>0.53125</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="N5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25">
-        <v>44793</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.73472222222222217</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.7090277777777777</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="20">
-        <v>426409</v>
-      </c>
-      <c r="K6" s="20">
-        <v>7669110</v>
-      </c>
-      <c r="L6" s="20">
-        <v>337</v>
-      </c>
-      <c r="M6" s="20">
-        <v>1351</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="19">
-        <v>44794</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.46875</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.60833333333333328</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="15">
-        <v>419494</v>
-      </c>
-      <c r="K7" s="15">
-        <v>7624379</v>
-      </c>
-      <c r="L7" s="15">
-        <v>608</v>
-      </c>
-      <c r="M7" s="15">
-        <v>737</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19">
-        <v>44796</v>
-      </c>
-      <c r="D8" s="18">
-        <v>6.7361111111111108E-2</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="15">
-        <v>427325</v>
-      </c>
-      <c r="K8" s="15">
-        <v>7663213</v>
-      </c>
-      <c r="L8" s="15">
-        <v>346</v>
-      </c>
-      <c r="M8" s="15">
-        <v>1367</v>
-      </c>
-      <c r="N8" s="16" t="s">
+      <c r="O13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="P13" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="N14" s="2"/>
+    <row r="14" spans="1:17" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="4"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="N17" s="2"/>
-      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="N18" s="2"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="F19" s="4"/>
       <c r="N19" s="2"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="F21" s="4"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="F22" s="4"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="F24" s="4"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="F25" s="2"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="F26" s="2"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="F27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="F28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="F29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="F30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C31" s="4"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="F31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="F32" s="2"/>
       <c r="N32" s="2"/>
     </row>
+    <row r="33" spans="3:14" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/raw_ts_data/fd/fd3_metadata.xlsx
+++ b/raw_ts_data/fd/fd3_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F2F920-7361-476F-B529-09E19B399799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346853C-E3C4-41F5-8D1E-C9F3FE6E475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{934731F6-3023-4192-A16A-9F86B9C29AEF}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>9.6C</t>
   </si>
   <si>
-    <t>3TP6</t>
-  </si>
-  <si>
     <t>EP8 - satisfactory sketch; found the pools in a jiffy</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>12.9C</t>
-  </si>
-  <si>
-    <t>3EP8</t>
   </si>
   <si>
     <t>TP11 - very disappointed in the sketch; missing North, point markers; took us 30-45 minutse just to find the pools</t>
@@ -138,9 +132,6 @@
     <t>5.5C</t>
   </si>
   <si>
-    <t>3EP7</t>
-  </si>
-  <si>
     <t>Very binary; easy to flag and shoot, all certainty 1, not much change in active layer throughout tundra. Thaw pits throughout tundra; swampy</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>5C</t>
   </si>
   <si>
-    <t>3EP1</t>
-  </si>
-  <si>
     <t>Further Notes</t>
   </si>
   <si>
@@ -248,6 +236,18 @@
   </si>
   <si>
     <t>Sampling Data</t>
+  </si>
+  <si>
+    <t>3EP01</t>
+  </si>
+  <si>
+    <t>3EP07</t>
+  </si>
+  <si>
+    <t>3EP08</t>
+  </si>
+  <si>
+    <t>3TP06</t>
   </si>
 </sst>
 </file>
@@ -527,12 +527,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -880,20 +880,20 @@
     <row r="1" spans="1:17" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="39"/>
-      <c r="C1" s="43"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-      <c r="F1" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="40"/>
+      <c r="F1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
       <c r="Q1" s="39"/>
@@ -901,55 +901,55 @@
     <row r="2" spans="1:17" s="34" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C3" s="32">
         <v>44790</v>
@@ -964,13 +964,13 @@
         <v>0.59097222222222223</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="27">
         <v>398142</v>
@@ -985,16 +985,16 @@
         <v>396</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:17" s="27" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="32">
         <v>44791</v>
@@ -1009,13 +1009,13 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="27">
         <v>423169</v>
@@ -1030,18 +1030,18 @@
         <v>780</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="31">
         <v>0.5</v>
@@ -1053,10 +1053,10 @@
         <v>0.62986111111111109</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>3</v>
@@ -1074,18 +1074,18 @@
         <v>1316</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="32">
         <v>44793</v>
@@ -1096,20 +1096,20 @@
         <v>0.53125</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="29"/>
       <c r="N6" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:17" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="32">
         <v>44793</v>
@@ -1124,13 +1124,13 @@
         <v>0.7090277777777777</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="27">
         <v>426409</v>
@@ -1145,15 +1145,15 @@
         <v>1351</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C8" s="19">
         <v>44794</v>
@@ -1168,13 +1168,13 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="24">
         <v>419494</v>
@@ -1189,15 +1189,15 @@
         <v>737</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="19">
         <v>44796</v>
@@ -1212,10 +1212,10 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>3</v>
@@ -1233,15 +1233,15 @@
         <v>1367</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="19">
         <v>44797</v>
@@ -1259,10 +1259,10 @@
         <v>5</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" s="24">
         <v>420491</v>
@@ -1277,18 +1277,18 @@
         <v>1480</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="19">
         <v>44797</v>
@@ -1303,10 +1303,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>3</v>
@@ -1324,16 +1324,16 @@
         <v>1407</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19">
         <v>44797</v>
@@ -1348,13 +1348,13 @@
         <v>0.69652777777777775</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="6">
         <v>420595</v>
@@ -1369,15 +1369,15 @@
         <v>739</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C13" s="15">
         <v>44798</v>

--- a/raw_ts_data/fd/fd3_metadata.xlsx
+++ b/raw_ts_data/fd/fd3_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/fd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346853C-E3C4-41F5-8D1E-C9F3FE6E475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27518113-4B9C-414D-B56D-35C6BD6F6F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{934731F6-3023-4192-A16A-9F86B9C29AEF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{934731F6-3023-4192-A16A-9F86B9C29AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>Reach</t>
   </si>
   <si>
-    <t>Sampling Data</t>
-  </si>
-  <si>
     <t>3EP01</t>
   </si>
   <si>
@@ -248,13 +245,16 @@
   </si>
   <si>
     <t>3TP06</t>
+  </si>
+  <si>
+    <t>Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -301,11 +301,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -420,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,13 +521,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,694 +838,672 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="48.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.5546875" style="1"/>
+    <col min="1" max="1" width="12.59765625" style="1"/>
+    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.796875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="48.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.796875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="41" t="s">
+    <row r="1" spans="1:17" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" s="34" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="35"/>
-    </row>
-    <row r="3" spans="1:17" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="32">
+        <v>44790</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="27">
+        <v>398142</v>
+      </c>
+      <c r="K2" s="27">
+        <v>7607177</v>
+      </c>
+      <c r="L2" s="27">
+        <v>870</v>
+      </c>
+      <c r="M2" s="27">
+        <v>396</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="3" spans="1:17" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C3" s="32">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="D3" s="31">
-        <v>0.46527777777777773</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="31">
-        <v>0.64097222222222217</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F3" s="30">
-        <v>0.59097222222222223</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="27">
-        <v>398142</v>
+        <v>423169</v>
       </c>
       <c r="K3" s="27">
-        <v>7607177</v>
+        <v>7628849</v>
       </c>
       <c r="L3" s="27">
-        <v>870</v>
+        <v>508</v>
       </c>
       <c r="M3" s="27">
-        <v>396</v>
+        <v>780</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" s="27" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="32">
-        <v>44791</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="31">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="31">
-        <v>0.57291666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="30">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>17</v>
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="J4" s="27">
-        <v>423169</v>
+        <v>426709</v>
       </c>
       <c r="K4" s="27">
-        <v>7628849</v>
+        <v>7665366</v>
       </c>
       <c r="L4" s="27">
-        <v>508</v>
+        <v>323</v>
       </c>
       <c r="M4" s="27">
-        <v>780</v>
+        <v>1316</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0.75</v>
-      </c>
+      <c r="C5" s="32">
+        <v>44793</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="30">
-        <v>0.62986111111111109</v>
+        <v>0.53125</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="27">
-        <v>426709</v>
-      </c>
-      <c r="K5" s="27">
-        <v>7665366</v>
-      </c>
-      <c r="L5" s="27">
-        <v>323</v>
-      </c>
-      <c r="M5" s="27">
-        <v>1316</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I5" s="29"/>
       <c r="N5" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="32">
         <v>44793</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="31">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.73472222222222217</v>
+      </c>
       <c r="F6" s="30">
-        <v>0.53125</v>
+        <v>0.7090277777777777</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="27">
+        <v>426409</v>
+      </c>
+      <c r="K6" s="27">
+        <v>7669110</v>
+      </c>
+      <c r="L6" s="27">
+        <v>337</v>
+      </c>
+      <c r="M6" s="27">
+        <v>1351</v>
+      </c>
       <c r="N6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="33"/>
-    </row>
-    <row r="7" spans="1:17" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="32">
-        <v>44793</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E7" s="31">
-        <v>0.73472222222222217</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0.7090277777777777</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="O6" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19">
+        <v>44794</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.46875</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="24">
+        <v>419494</v>
+      </c>
+      <c r="K7" s="24">
+        <v>7624379</v>
+      </c>
+      <c r="L7" s="24">
+        <v>608</v>
+      </c>
+      <c r="M7" s="24">
+        <v>737</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="19">
+        <v>44796</v>
+      </c>
+      <c r="D8" s="26">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="24">
+        <v>427325</v>
+      </c>
+      <c r="K8" s="24">
+        <v>7663213</v>
+      </c>
+      <c r="L8" s="24">
+        <v>346</v>
+      </c>
+      <c r="M8" s="24">
+        <v>1367</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19">
+        <v>44797</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.4375</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="27">
-        <v>426409</v>
-      </c>
-      <c r="K7" s="27">
-        <v>7669110</v>
-      </c>
-      <c r="L7" s="27">
-        <v>337</v>
-      </c>
-      <c r="M7" s="27">
-        <v>1351</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="19">
-        <v>44794</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0.46875</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0.60833333333333328</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="24">
-        <v>419494</v>
-      </c>
-      <c r="K8" s="24">
-        <v>7624379</v>
-      </c>
-      <c r="L8" s="24">
-        <v>608</v>
-      </c>
-      <c r="M8" s="24">
-        <v>737</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="19">
-        <v>44796</v>
-      </c>
-      <c r="D9" s="26">
-        <v>6.7361111111111108E-2</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="24">
-        <v>427325</v>
+        <v>420491</v>
       </c>
       <c r="K9" s="24">
-        <v>7663213</v>
+        <v>7622843</v>
       </c>
       <c r="L9" s="24">
-        <v>346</v>
+        <v>587</v>
       </c>
       <c r="M9" s="24">
-        <v>1367</v>
+        <v>1480</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="24" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="19">
         <v>44797</v>
       </c>
-      <c r="D10" s="26">
-        <v>0.4375</v>
-      </c>
-      <c r="E10" s="26">
-        <v>0.49791666666666662</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="D10" s="23">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="24">
-        <v>420491</v>
-      </c>
-      <c r="K10" s="24">
-        <v>7622843</v>
-      </c>
-      <c r="L10" s="24">
-        <v>587</v>
-      </c>
-      <c r="M10" s="24">
-        <v>1480</v>
+      <c r="I10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>420240</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7622690</v>
+      </c>
+      <c r="L10" s="6">
+        <v>591</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1407</v>
       </c>
       <c r="N10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="O10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C11" s="19">
         <v>44797</v>
       </c>
-      <c r="D11" s="23">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.61041666666666672</v>
+      <c r="D11" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.72777777777777775</v>
       </c>
       <c r="F11" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>12</v>
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J11" s="6">
-        <v>420240</v>
+        <v>420595</v>
       </c>
       <c r="K11" s="6">
-        <v>7622690</v>
+        <v>7622422</v>
       </c>
       <c r="L11" s="6">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M11" s="6">
-        <v>1407</v>
+        <v>739</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="O11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="19">
-        <v>44797</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.72777777777777775</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.69652777777777775</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="6">
-        <v>420595</v>
-      </c>
-      <c r="K12" s="6">
-        <v>7622422</v>
-      </c>
-      <c r="L12" s="6">
-        <v>576</v>
-      </c>
-      <c r="M12" s="6">
-        <v>739</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="C12" s="15">
         <v>44798</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D12" s="14">
         <v>0.625</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E12" s="14">
         <v>0.68958333333333333</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F12" s="13">
         <v>0.68402777777777779</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J12" s="10">
         <v>412916</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K12" s="10">
         <v>7619360</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L12" s="10">
         <v>772</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M12" s="10">
         <v>1431</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="N18" s="2"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="N19" s="2"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="F21" s="4"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="F25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="F26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="F27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="F28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="F29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="F30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="F31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="3:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:16" ht="14" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="F32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="3:14" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
